--- a/server/resources/Distributors.xlsx
+++ b/server/resources/Distributors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylelevy/code/nextjs-code-challenge/server/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Arlen\Desktop\topbloc\code-challenge\server\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50C8CE1-2C4A-E547-90D0-FB5945BB241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BA8B09-9ECB-441C-B210-15B0796DB1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="18700" activeTab="2" xr2:uid="{55F9AAF4-5023-6A4C-B2E9-1E49E110F345}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{55F9AAF4-5023-6A4C-B2E9-1E49E110F345}"/>
   </bookViews>
   <sheets>
     <sheet name="Candy Corp" sheetId="1" r:id="rId1"/>
@@ -460,16 +460,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5DF09A-8712-0349-8B63-36BB778FDA93}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="16.6640625" customWidth="1"/>
+    <col min="1" max="3" width="16.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -491,7 +491,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -502,7 +502,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -513,7 +513,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -524,19 +524,19 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
     </row>
   </sheetData>
@@ -549,15 +549,15 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="16.6640625" customWidth="1"/>
+    <col min="1" max="3" width="16.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -579,7 +579,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -590,7 +590,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -601,7 +601,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -612,7 +612,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -623,7 +623,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -634,7 +634,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -645,7 +645,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -656,7 +656,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -667,7 +667,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -678,7 +678,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -689,7 +689,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -700,7 +700,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -711,7 +711,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -722,7 +722,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -742,16 +742,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13DAFF-8F71-B54E-92DC-3370EFEE3E1C}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="16.6640625" customWidth="1"/>
+    <col min="1" max="3" width="16.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -773,7 +773,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -784,7 +784,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -795,7 +795,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -806,7 +806,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -817,7 +817,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -828,7 +828,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -839,7 +839,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
